--- a/exp_res.xlsx
+++ b/exp_res.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dingxuetao/Desktop/快盘/competition/2017jd/fantasy/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="-38400" yWindow="-3600" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -95,27 +90,115 @@
       <t>xian'shang</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yr</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>params = {
+    'task': 'train',
+    'boosting_type': 'gbdt',
+    'objective':'regression',
+    'max_depth':5, 
+    'metric':{'l2','auc'},
+    'num_trees': 150,
+    'learning_rate': 0.01,
+    'feature_fraction': 0.9,
+    'bagging_fraction': 0.8,
+    'bagging_freq': 5,
+    'verbose': 0,
+}
+gbm = lgbm.train(params,
+                lgb_train,
+                num_boost_round=100,
+                valid_sets=lgb_eval
+               )</t>
+  </si>
+  <si>
+    <t>lightgbm+gbdt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>user_month + user_agg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+'aug',
+ 'left_balance',
+ 'month_need_pay',
+ 'oct',
+ 'real_loan_amount',
+ 'real_loan_amount_kurt',
+ 'real_loan_amount_mad',
+ 'real_loan_amount_max',
+ 'real_loan_amount_mean',
+ 'real_loan_amount_median',
+ 'real_loan_amount_min',
+ 'real_loan_amount_month_kurt',
+ 'real_loan_amount_month_mad',
+ 'real_loan_amount_month_max',
+ 'real_loan_amount_month_mean',
+ 'real_loan_amount_month_median',
+ 'real_loan_amount_month_min',
+ 'real_loan_amount_month_skew',
+ 'real_loan_amount_month_std',
+ 'real_loan_amount_month_sum',
+ 'real_loan_amount_skew',
+ 'real_loan_amount_std',
+ 'real_loan_amount_sum',
+ 'sep',
+ 'tuned_limit'</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,11 +221,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -197,7 +287,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,7 +322,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,7 +499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -417,19 +507,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,10 +547,41 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409">
+      <c r="A2">
+        <v>201712021857</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>1.26</v>
+      </c>
+      <c r="H2">
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>